--- a/public/files/clientes-base.xlsx
+++ b/public/files/clientes-base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Nombre</t>
   </si>
@@ -59,7 +59,10 @@
     <t>Tipo de precio</t>
   </si>
   <si>
-    <t>Codigo</t>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
   </si>
 </sst>
 </file>
@@ -115,21 +118,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:L2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:L2"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="Codigo"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:M2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:M2"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Numero"/>
     <tableColumn id="2" name="Nombre"/>
     <tableColumn id="3" name="Telefono"/>
     <tableColumn id="4" name="Direccion"/>
     <tableColumn id="5" name="Localidad"/>
     <tableColumn id="6" name="Email"/>
     <tableColumn id="7" name="Condicion frente al iva"/>
-    <tableColumn id="8" name="Razon social"/>
+    <tableColumn id="8" name="Razon social" dataCellStyle="Normal"/>
     <tableColumn id="9" name="Cuit"/>
     <tableColumn id="10" name="Saldo actual"/>
     <tableColumn id="11" name="Descripcion"/>
-    <tableColumn id="12" name="Tipo de precio"/>
+    <tableColumn id="12" name="Vendedor"/>
+    <tableColumn id="13" name="Tipo de precio"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -398,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +414,7 @@
     <col min="10" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -445,6 +449,9 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
     </row>
